--- a/Clusters_totales2.xlsx
+++ b/Clusters_totales2.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rodrigo.guarneros\Documents\2022\pequeños operadores\BiasAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71300A1B-9A31-4AD5-B6CD-9A5359A42FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9F1212-4417-4C1B-AC3E-A6EECAA69A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clusters_totales2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -241,9 +253,6 @@
     <t>LOGITEL</t>
   </si>
   <si>
-    <t>OTROS</t>
-  </si>
-  <si>
     <t>TV OJO CALIENTE</t>
   </si>
   <si>
@@ -395,12 +404,15 @@
   </si>
   <si>
     <t>COMNET</t>
+  </si>
+  <si>
+    <t>CABLEREGION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1235,19 +1247,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.36328125" customWidth="1"/>
+    <col min="4" max="4" width="24.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1284,7 +1299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1304,7 +1319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1324,7 +1339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1344,7 +1359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1364,7 +1379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1384,7 +1399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1404,7 +1419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1424,7 +1439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1443,8 +1458,12 @@
       <c r="F10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <f>D10/D11-1</f>
+        <v>1.2130524328679528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1464,7 +1483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1484,7 +1503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1504,7 +1523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1524,7 +1543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1544,7 +1563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1884,7 +1903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1903,8 +1922,12 @@
       <c r="F33" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <f>D33/D34-1</f>
+        <v>0.42891898616888291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1924,7 +1947,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1944,7 +1967,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1955,16 +1978,17 @@
         <v>42</v>
       </c>
       <c r="D36" s="1">
-        <v>56882777.340000004</v>
+        <v>56882777.350000001</v>
       </c>
       <c r="E36">
-        <v>17.85650317</v>
+        <v>17.856503164999999</v>
       </c>
       <c r="F36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1984,7 +2008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2004,7 +2028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2024,7 +2048,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2044,7 +2068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2064,7 +2088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2084,7 +2108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2104,7 +2128,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2124,7 +2148,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2144,7 +2168,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2164,7 +2188,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2184,7 +2208,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2524,7 +2548,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2544,7 +2568,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2564,7 +2588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2572,7 +2596,7 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="D67" s="1">
         <v>10625579.42</v>
@@ -2584,7 +2608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2592,7 +2616,7 @@
         <v>104</v>
       </c>
       <c r="C68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D68" s="1">
         <v>8419766.9900000002</v>
@@ -2604,7 +2628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2612,7 +2636,7 @@
         <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D69" s="1">
         <v>8211222</v>
@@ -2624,7 +2648,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2632,7 +2656,7 @@
         <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D70" s="1">
         <v>7994366.25</v>
@@ -2644,7 +2668,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2652,7 +2676,7 @@
         <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D71" s="1">
         <v>7884565.2599999998</v>
@@ -2664,7 +2688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2672,7 +2696,7 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D72" s="1">
         <v>7300991.6600000001</v>
@@ -2684,7 +2708,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2692,7 +2716,7 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D73" s="1">
         <v>6533160.4199999999</v>
@@ -2704,7 +2728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2712,7 +2736,7 @@
         <v>106</v>
       </c>
       <c r="C74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D74" s="1">
         <v>6023883.0700000003</v>
@@ -2723,8 +2747,12 @@
       <c r="F74" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H74">
+        <f>D74/D75-1</f>
+        <v>8.83334263782527E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2732,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D75" s="1">
         <v>5534961</v>
@@ -2741,10 +2769,10 @@
         <v>15.52659508</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2752,7 +2780,7 @@
         <v>92</v>
       </c>
       <c r="C76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D76" s="1">
         <v>5473548.8799999999</v>
@@ -2761,10 +2789,10 @@
         <v>15.51543775</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2772,7 +2800,7 @@
         <v>40</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D77" s="1">
         <v>4917794</v>
@@ -2781,10 +2809,10 @@
         <v>15.40837061</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2792,7 +2820,7 @@
         <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D78" s="1">
         <v>4796982.79</v>
@@ -2801,10 +2829,10 @@
         <v>15.38349769</v>
       </c>
       <c r="F78" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2812,7 +2840,7 @@
         <v>63</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D79" s="1">
         <v>4756865</v>
@@ -2821,10 +2849,10 @@
         <v>15.3750994</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2832,7 +2860,7 @@
         <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D80" s="1">
         <v>4355978.46</v>
@@ -2841,7 +2869,7 @@
         <v>15.28705982</v>
       </c>
       <c r="F80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -2852,7 +2880,7 @@
         <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D81" s="1">
         <v>4266116</v>
@@ -2861,7 +2889,7 @@
         <v>15.26621437</v>
       </c>
       <c r="F81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -2872,7 +2900,7 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D82" s="1">
         <v>4003498.07</v>
@@ -2881,7 +2909,7 @@
         <v>15.20267905</v>
       </c>
       <c r="F82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -2892,7 +2920,7 @@
         <v>49</v>
       </c>
       <c r="C83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="1">
         <v>3300058</v>
@@ -2901,7 +2929,7 @@
         <v>15.009450599999999</v>
       </c>
       <c r="F83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -2912,7 +2940,7 @@
         <v>109</v>
       </c>
       <c r="C84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D84" s="1">
         <v>3185056</v>
@@ -2921,7 +2949,7 @@
         <v>14.973980429999999</v>
       </c>
       <c r="F84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -2932,7 +2960,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1">
         <v>2856870</v>
@@ -2941,7 +2969,7 @@
         <v>14.865237179999999</v>
       </c>
       <c r="F85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -2952,7 +2980,7 @@
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D86" s="1">
         <v>2836838.87</v>
@@ -2961,7 +2989,7 @@
         <v>14.85820092</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -2972,7 +3000,7 @@
         <v>37</v>
       </c>
       <c r="C87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D87" s="1">
         <v>2770189.31</v>
@@ -2981,7 +3009,7 @@
         <v>14.834426219999999</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -2992,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D88" s="1">
         <v>2757493</v>
@@ -3001,7 +3029,7 @@
         <v>14.829832489999999</v>
       </c>
       <c r="F88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -3012,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D89" s="1">
         <v>2726562.21</v>
@@ -3021,7 +3049,7 @@
         <v>14.818552110000001</v>
       </c>
       <c r="F89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -3032,7 +3060,7 @@
         <v>76</v>
       </c>
       <c r="C90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D90" s="1">
         <v>2717734.33</v>
@@ -3041,7 +3069,7 @@
         <v>14.81530912</v>
       </c>
       <c r="F90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -3052,16 +3080,16 @@
         <v>46</v>
       </c>
       <c r="C91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D91" s="1">
-        <v>2598078</v>
+        <v>2598078.2000000002</v>
       </c>
       <c r="E91">
-        <v>14.7702825</v>
+        <v>14.770282549999999</v>
       </c>
       <c r="F91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -3072,7 +3100,7 @@
         <v>34</v>
       </c>
       <c r="C92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D92" s="1">
         <v>2598078</v>
@@ -3081,7 +3109,7 @@
         <v>14.7702825</v>
       </c>
       <c r="F92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -3092,7 +3120,7 @@
         <v>87</v>
       </c>
       <c r="C93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D93" s="1">
         <v>2460596.77</v>
@@ -3101,7 +3129,7 @@
         <v>14.71591447</v>
       </c>
       <c r="F93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -3112,7 +3140,7 @@
         <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D94" s="1">
         <v>2365983.5</v>
@@ -3121,7 +3149,7 @@
         <v>14.67670435</v>
       </c>
       <c r="F94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -3132,7 +3160,7 @@
         <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D95" s="1">
         <v>2364694.58</v>
@@ -3141,7 +3169,7 @@
         <v>14.67615943</v>
       </c>
       <c r="F95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -3152,7 +3180,7 @@
         <v>58</v>
       </c>
       <c r="C96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D96" s="1">
         <v>2323024.23</v>
@@ -3161,7 +3189,7 @@
         <v>14.65838044</v>
       </c>
       <c r="F96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -3172,7 +3200,7 @@
         <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D97" s="1">
         <v>2288255</v>
@@ -3181,7 +3209,7 @@
         <v>14.643300079999999</v>
       </c>
       <c r="F97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -3192,7 +3220,7 @@
         <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D98" s="1">
         <v>2279442</v>
@@ -3201,7 +3229,7 @@
         <v>14.639441229999999</v>
       </c>
       <c r="F98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -3212,7 +3240,7 @@
         <v>25</v>
       </c>
       <c r="C99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D99" s="1">
         <v>2251968.94</v>
@@ -3221,7 +3249,7 @@
         <v>14.62731548</v>
       </c>
       <c r="F99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -3232,7 +3260,7 @@
         <v>55</v>
       </c>
       <c r="C100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D100" s="1">
         <v>2199560</v>
@@ -3241,7 +3269,7 @@
         <v>14.603767899999999</v>
       </c>
       <c r="F100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -3252,7 +3280,7 @@
         <v>73</v>
       </c>
       <c r="C101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D101" s="1">
         <v>2144621.65</v>
@@ -3261,7 +3289,7 @@
         <v>14.578473710000001</v>
       </c>
       <c r="F101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -3272,7 +3300,7 @@
         <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D102" s="1">
         <v>1765344.83</v>
@@ -3281,7 +3309,7 @@
         <v>14.3838566</v>
       </c>
       <c r="F102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -3292,7 +3320,7 @@
         <v>52</v>
       </c>
       <c r="C103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D103" s="1">
         <v>1533408.12</v>
@@ -3301,7 +3329,7 @@
         <v>14.24300335</v>
       </c>
       <c r="F103" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -3312,7 +3340,7 @@
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D104" s="1">
         <v>1515930.91</v>
@@ -3321,7 +3349,7 @@
         <v>14.23154027</v>
       </c>
       <c r="F104" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -3332,7 +3360,7 @@
         <v>21</v>
       </c>
       <c r="C105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D105" s="1">
         <v>1425388</v>
@@ -3341,7 +3369,7 @@
         <v>14.16995462</v>
       </c>
       <c r="F105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -3352,7 +3380,7 @@
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D106" s="1">
         <v>1094570</v>
@@ -3361,7 +3389,7 @@
         <v>13.90587215</v>
       </c>
       <c r="F106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -3372,7 +3400,7 @@
         <v>69</v>
       </c>
       <c r="C107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D107" s="1">
         <v>998132.75</v>
@@ -3381,7 +3409,7 @@
         <v>13.813641560000001</v>
       </c>
       <c r="F107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -3392,7 +3420,7 @@
         <v>91</v>
       </c>
       <c r="C108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D108" s="1">
         <v>568497.31999999995</v>
@@ -3401,7 +3429,7 @@
         <v>13.250751879999999</v>
       </c>
       <c r="F108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -3412,7 +3440,7 @@
         <v>47</v>
       </c>
       <c r="C109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D109" s="1">
         <v>497141</v>
@@ -3421,7 +3449,7 @@
         <v>13.116628970000001</v>
       </c>
       <c r="F109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -3432,16 +3460,16 @@
         <v>50</v>
       </c>
       <c r="C110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D110" s="1">
-        <v>474403</v>
+        <v>474404</v>
       </c>
       <c r="E110">
-        <v>13.069812450000001</v>
+        <v>13.069812454999999</v>
       </c>
       <c r="F110" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -3452,7 +3480,7 @@
         <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D111" s="1">
         <v>474403</v>
@@ -3461,7 +3489,7 @@
         <v>13.069812450000001</v>
       </c>
       <c r="F111" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -3472,7 +3500,7 @@
         <v>45</v>
       </c>
       <c r="C112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D112" s="1">
         <v>424046.08000000002</v>
@@ -3481,7 +3509,7 @@
         <v>12.95759741</v>
       </c>
       <c r="F112" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -3492,7 +3520,7 @@
         <v>35</v>
       </c>
       <c r="C113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D113" s="1">
         <v>340986</v>
@@ -3501,7 +3529,7 @@
         <v>12.7395967</v>
       </c>
       <c r="F113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -3512,7 +3540,7 @@
         <v>100</v>
       </c>
       <c r="C114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D114" s="1">
         <v>332068.90999999997</v>
@@ -3521,7 +3549,7 @@
         <v>12.713097790000001</v>
       </c>
       <c r="F114" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -3532,7 +3560,7 @@
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D115" s="1">
         <v>320585.14</v>
@@ -3541,7 +3569,7 @@
         <v>12.67790317</v>
       </c>
       <c r="F115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
@@ -3552,7 +3580,7 @@
         <v>23</v>
       </c>
       <c r="C116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D116" s="1">
         <v>68200</v>
@@ -3561,7 +3589,7 @@
         <v>11.13019984</v>
       </c>
       <c r="F116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -3572,7 +3600,7 @@
         <v>18</v>
       </c>
       <c r="C117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D117" s="1">
         <v>43293.04</v>
@@ -3581,7 +3609,7 @@
         <v>10.67574716</v>
       </c>
       <c r="F117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
